--- a/配置文档/全局配置相关/默认配置表.xlsx
+++ b/配置文档/全局配置相关/默认配置表.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24315" windowHeight="8910"/>
+    <workbookView windowWidth="20145" windowHeight="7860" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_GlobalConfigInt_全局配置Int数据" sheetId="1" r:id="rId1"/>
     <sheet name="cfg_GlobalConfigStr_Str数据" sheetId="2" r:id="rId2"/>
     <sheet name="cfg_GlobalConfigFloat_float数据" sheetId="3" r:id="rId3"/>
     <sheet name="cfg_GlobalConfigList_List数据" sheetId="4" r:id="rId4"/>
-    <sheet name="cfg_GlobalConfigPng_Png数据" sheetId="6" r:id="rId5"/>
+    <sheet name="cfg_GlobalConfigPng_Png散图" sheetId="6" r:id="rId5"/>
     <sheet name="数据类型" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
@@ -36,6 +36,411 @@
 </workbook>
 </file>
 
+<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
+<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="ID_4DF58546C9684EF885F57E66A8C81844" descr="拆除回收1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10182225" y="1533525"/>
+          <a:ext cx="1143000" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="ID_13D1421CF49949B28A045D0662F30214" descr="快速重建1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363200" y="2548255"/>
+          <a:ext cx="1143000" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="ID_45CA2F1B5A01451F870ED313C24CB678" descr="传送1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10115550" y="3129280"/>
+          <a:ext cx="1143000" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="ID_E615A39914A84A57BF8EA8E908077EAC" descr="一次性道具列表左上"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10634980" y="3141345"/>
+          <a:ext cx="733425" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="ID_CC6A49322DD643D8B44B5B54C6F783E8" descr="一次性道具列表右下"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10648315" y="5311140"/>
+          <a:ext cx="742950" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="ID_86BFAD56A97F43D68FD1A4B3C3F9447C" descr="一次性道具列表"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10118090" y="6017260"/>
+          <a:ext cx="1571625" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="ID_D7C2BA42ED4C4E3ABEF287762A8CD0E4" descr="建造列表窗口"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10964545" y="6024245"/>
+          <a:ext cx="2249170" cy="749935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="ID_592F75BF494C463291CC98E844FD0829" descr="建造子列表无内容窗口"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10896600" y="6931025"/>
+          <a:ext cx="762000" cy="768985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="ID_AD6C04213C134FC1A38B1951EC5C0EF1" descr="建造子列表窗口"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11426825" y="6763385"/>
+          <a:ext cx="762000" cy="768985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="ID_7A16C4365B5D4F22B4CF6879B4E8370F" descr="建造列表支架左"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8900160" y="7471410"/>
+          <a:ext cx="742950" cy="721360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="ID_D86BD9E5CFEF411CB0703A9D3BAA4C9E" descr="建造列表支架右"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8165465" y="6120765"/>
+          <a:ext cx="742950" cy="721360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="ID_FFF7BDEC38BC43F8A720989321AEA61F" descr="建造子列表支架左"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5795645" y="7644130"/>
+          <a:ext cx="228600" cy="993775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="ID_F561EB521CE94EB893B6D11162CE6E76" descr="建造子列表支架右"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4503420" y="7004685"/>
+          <a:ext cx="228600" cy="993775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="ID_848BDB4E545D4A0988CB0F859E80787A" descr="玩家名称窗口"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10433685" y="12815570"/>
+          <a:ext cx="1229995" cy="270510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="ID_39BAF081C8AE48E9878228C81A1396CE" descr="玩家延迟信号"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10733405" y="13335000"/>
+          <a:ext cx="576580" cy="194310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="ID_BBEC5DE245F34A54AF2AFE35366EDABA" descr="设置按钮"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11004550" y="13833475"/>
+          <a:ext cx="565785" cy="588010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+</etc:cellImages>
+</file>
+
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" odcFile="F:\Remnant Afterglow Project\工具\基础配置\数据类型.accdb 数据类型.odc" name="连接" type="1" refreshOnLoad="1" background="1" refreshedVersion="2" saveData="1">
@@ -45,7 +450,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="123">
   <si>
     <t>第一行 为备注
 第二行 为字段导出设置
@@ -143,6 +548,51 @@
   </si>
   <si>
     <t>PNG</t>
+  </si>
+  <si>
+    <t>Map_BuildView_Operate_1</t>
+  </si>
+  <si>
+    <t>拆除回收1</t>
+  </si>
+  <si>
+    <t>作战_建筑界面_操作按钮1_拆除回收</t>
+  </si>
+  <si>
+    <t>Map_BuildView_Operate_2</t>
+  </si>
+  <si>
+    <t>快速重建1</t>
+  </si>
+  <si>
+    <t>作战_建筑界面_操作按钮2_快速重建</t>
+  </si>
+  <si>
+    <t>Map_BuildView_Operate_3</t>
+  </si>
+  <si>
+    <t>传送1</t>
+  </si>
+  <si>
+    <t>作战_建筑界面_操作按钮3_传送</t>
+  </si>
+  <si>
+    <t>Map_ItemView_Img_1</t>
+  </si>
+  <si>
+    <t>一次性道具列表左上</t>
+  </si>
+  <si>
+    <t>Map_ItemView_Img_2</t>
+  </si>
+  <si>
+    <t>一次性道具列表右下</t>
+  </si>
+  <si>
+    <t>Map_ItemView_Img_3</t>
+  </si>
+  <si>
+    <t>一次性道具列表</t>
   </si>
   <si>
     <t>数据类型编号</t>
@@ -392,7 +842,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +853,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -885,137 +1342,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1025,25 +1482,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1052,7 +1515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1381,158 +1844,158 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="39.875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="30.375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="46.375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="27.25" style="10" customWidth="1"/>
+    <col min="1" max="1" width="39.875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="30.375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="46.375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="27.25" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="142.5" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>2</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>0</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" ht="36" customHeight="1" spans="1:5">
-      <c r="A5" s="10">
+    <row r="5" s="12" customFormat="1" ht="36" customHeight="1" spans="1:5">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="1"/>
-    <row r="7" s="10" customFormat="1" spans="4:4">
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" s="10" customFormat="1"/>
-    <row r="9" s="10" customFormat="1"/>
-    <row r="10" s="10" customFormat="1" spans="1:5">
-      <c r="A10" s="10">
+    <row r="6" s="12" customFormat="1"/>
+    <row r="7" s="12" customFormat="1" spans="4:4">
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" s="12" customFormat="1"/>
+    <row r="9" s="12" customFormat="1"/>
+    <row r="10" s="12" customFormat="1" spans="1:5">
+      <c r="A10" s="12">
         <v>1</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="12">
         <v>36</v>
       </c>
     </row>
-    <row r="11" s="10" customFormat="1" spans="1:5">
-      <c r="A11" s="10">
+    <row r="11" s="12" customFormat="1" spans="1:5">
+      <c r="A11" s="12">
         <v>1</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10">
+      <c r="A12" s="12">
         <v>1</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1567,70 +2030,70 @@
   </cols>
   <sheetData>
     <row r="1" ht="142.5" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>2</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>0</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1664,70 +2127,70 @@
   </cols>
   <sheetData>
     <row r="1" ht="142.5" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>2</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>0</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1761,78 +2224,78 @@
   </cols>
   <sheetData>
     <row r="1" ht="142.5" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>2</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>0</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="8"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="9"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1848,87 +2311,247 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="39.875" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="46.375" customWidth="1"/>
-    <col min="5" max="5" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="39.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.6083333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="46.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="72" customHeight="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>2</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>0</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="5" ht="43.5" spans="1:5">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_4DF58546C9684EF885F57E66A8C81844",1)</f>
+        <v>=DISPIMG("ID_4DF58546C9684EF885F57E66A8C81844",1)</v>
+      </c>
+    </row>
+    <row r="6" ht="43.5" spans="1:5">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_13D1421CF49949B28A045D0662F30214",1)</f>
+        <v>=DISPIMG("ID_13D1421CF49949B28A045D0662F30214",1)</v>
+      </c>
+    </row>
+    <row r="7" ht="43.5" spans="1:5">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_45CA2F1B5A01451F870ED313C24CB678",1)</f>
+        <v>=DISPIMG("ID_45CA2F1B5A01451F870ED313C24CB678",1)</v>
+      </c>
+    </row>
+    <row r="9" ht="22" customHeight="1"/>
+    <row r="10" ht="60.75" spans="1:5">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_E615A39914A84A57BF8EA8E908077EAC",1)</f>
+        <v>=DISPIMG("ID_E615A39914A84A57BF8EA8E908077EAC",1)</v>
+      </c>
+    </row>
+    <row r="11" ht="51" customHeight="1" spans="1:5">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_CC6A49322DD643D8B44B5B54C6F783E8",1)</f>
+        <v>=DISPIMG("ID_CC6A49322DD643D8B44B5B54C6F783E8",1)</v>
+      </c>
+    </row>
+    <row r="12" ht="63" customHeight="1" spans="1:5">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_86BFAD56A97F43D68FD1A4B3C3F9447C",1)</f>
+        <v>=DISPIMG("ID_86BFAD56A97F43D68FD1A4B3C3F9447C",1)</v>
+      </c>
+    </row>
+    <row r="14" ht="56" spans="5:5">
+      <c r="E14" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_D7C2BA42ED4C4E3ABEF287762A8CD0E4",1)</f>
+        <v>=DISPIMG("ID_D7C2BA42ED4C4E3ABEF287762A8CD0E4",1)</v>
+      </c>
+    </row>
+    <row r="15" ht="77" customHeight="1" spans="5:5">
+      <c r="E15" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_AD6C04213C134FC1A38B1951EC5C0EF1",1)</f>
+        <v>=DISPIMG("ID_AD6C04213C134FC1A38B1951EC5C0EF1",1)</v>
+      </c>
+    </row>
+    <row r="16" ht="62.8" spans="5:5">
+      <c r="E16" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_592F75BF494C463291CC98E844FD0829",1)</f>
+        <v>=DISPIMG("ID_592F75BF494C463291CC98E844FD0829",1)</v>
+      </c>
+    </row>
+    <row r="17" ht="77" customHeight="1" spans="5:5">
+      <c r="E17" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_D86BD9E5CFEF411CB0703A9D3BAA4C9E",1)</f>
+        <v>=DISPIMG("ID_D86BD9E5CFEF411CB0703A9D3BAA4C9E",1)</v>
+      </c>
+    </row>
+    <row r="18" ht="59.05" spans="5:5">
+      <c r="E18" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_7A16C4365B5D4F22B4CF6879B4E8370F",1)</f>
+        <v>=DISPIMG("ID_7A16C4365B5D4F22B4CF6879B4E8370F",1)</v>
+      </c>
+    </row>
+    <row r="19" ht="80.5" spans="5:5">
+      <c r="E19" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_FFF7BDEC38BC43F8A720989321AEA61F",1)</f>
+        <v>=DISPIMG("ID_FFF7BDEC38BC43F8A720989321AEA61F",1)</v>
+      </c>
+    </row>
+    <row r="20" ht="107" customHeight="1" spans="5:5">
+      <c r="E20" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_F561EB521CE94EB893B6D11162CE6E76",1)</f>
+        <v>=DISPIMG("ID_F561EB521CE94EB893B6D11162CE6E76",1)</v>
+      </c>
+    </row>
+    <row r="22" ht="23.55" spans="5:5">
+      <c r="E22" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_848BDB4E545D4A0988CB0F859E80787A",1)</f>
+        <v>=DISPIMG("ID_848BDB4E545D4A0988CB0F859E80787A",1)</v>
+      </c>
+    </row>
+    <row r="23" ht="17.55" spans="5:5">
+      <c r="E23" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_39BAF081C8AE48E9878228C81A1396CE",1)</f>
+        <v>=DISPIMG("ID_39BAF081C8AE48E9878228C81A1396CE",1)</v>
+      </c>
+    </row>
+    <row r="24" ht="169.8" spans="5:5">
+      <c r="E24" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_BBEC5DE245F34A54AF2AFE35366EDABA",1)</f>
+        <v>=DISPIMG("ID_BBEC5DE245F34A54AF2AFE35366EDABA",1)</v>
       </c>
     </row>
   </sheetData>
@@ -1960,16 +2583,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1977,13 +2600,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1991,13 +2614,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2008,10 +2631,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2019,13 +2642,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2036,10 +2659,10 @@
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2050,10 +2673,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2061,13 +2684,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2075,13 +2698,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2092,10 +2715,10 @@
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2103,13 +2726,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2117,13 +2740,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2131,10 +2754,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2142,7 +2765,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2150,7 +2773,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2158,7 +2781,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2166,7 +2789,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2174,7 +2797,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2182,7 +2805,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2190,7 +2813,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2198,7 +2821,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2206,7 +2829,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2214,7 +2837,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2222,7 +2845,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2230,7 +2853,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2238,13 +2861,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2252,13 +2875,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2266,13 +2889,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2280,13 +2903,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2297,7 +2920,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2305,13 +2928,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2319,13 +2942,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2333,13 +2956,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2347,13 +2970,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2361,13 +2984,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2375,13 +2998,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2389,10 +3012,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/全局配置相关/默认配置表.xlsx
+++ b/配置文档/全局配置相关/默认配置表.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20145" windowHeight="7860" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="21840" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_GlobalConfigInt_全局配置Int数据" sheetId="1" r:id="rId1"/>
-    <sheet name="cfg_GlobalConfigStr_Str数据" sheetId="2" r:id="rId2"/>
-    <sheet name="cfg_GlobalConfigFloat_float数据" sheetId="3" r:id="rId3"/>
-    <sheet name="cfg_GlobalConfigList_List数据" sheetId="4" r:id="rId4"/>
-    <sheet name="cfg_GlobalConfigPng_Png散图" sheetId="6" r:id="rId5"/>
+    <sheet name="cfg_GlobalConfigPng_Png散图" sheetId="6" r:id="rId2"/>
+    <sheet name="cfg_GlobalConfigStr_Str数据" sheetId="2" r:id="rId3"/>
+    <sheet name="cfg_GlobalConfigFloat_float数据" sheetId="3" r:id="rId4"/>
+    <sheet name="cfg_GlobalConfigList_List数据" sheetId="4" r:id="rId5"/>
     <sheet name="数据类型" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="5">数据类型!#REF!</definedName>
     <definedName name="数据类型_Sheet1" localSheetId="5">数据类型!#REF!</definedName>
-    <definedName name="连接" localSheetId="5">数据类型!$A$1:$D$37</definedName>
+    <definedName name="连接" localSheetId="5">数据类型!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -391,7 +391,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="ID_39BAF081C8AE48E9878228C81A1396CE" descr="玩家延迟信号"/>
+        <xdr:cNvPr id="17" name="ID_BBEC5DE245F34A54AF2AFE35366EDABA" descr="设置按钮"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -404,8 +404,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10733405" y="13335000"/>
-          <a:ext cx="576580" cy="194310"/>
+          <a:off x="11004550" y="13833475"/>
+          <a:ext cx="565785" cy="588010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -416,7 +416,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="ID_BBEC5DE245F34A54AF2AFE35366EDABA" descr="设置按钮"/>
+        <xdr:cNvPr id="19" name="ID_3129688A6F744B2ABC15FA1FCF740C56" descr="资源列表-主要显示窗口"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -429,8 +429,133 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11004550" y="13833475"/>
-          <a:ext cx="565785" cy="588010"/>
+          <a:off x="11352530" y="14878050"/>
+          <a:ext cx="10058400" cy="873125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="ID_E11681D488D244958BDF55FBD406C499" descr="窗口衔接上下"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11571605" y="3670300"/>
+          <a:ext cx="665480" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="ID_38BFD745ADBA4760963B0D72345EF281" descr="窗口衔接左右"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11790680" y="3889375"/>
+          <a:ext cx="47625" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="ID_C46F015444CF47A086C961DB06B2A54A" descr="玩家延迟信号 - 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11470005" y="19780885"/>
+          <a:ext cx="190500" cy="194945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="ID_F4E2DF4D32804525807430394889206F" descr="玩家延迟信号 - 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11442065" y="21932265"/>
+          <a:ext cx="190500" cy="194945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="ID_6170CF5854B9476EACBFBA162F9D861F" descr="玩家延迟信号 - 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11375390" y="22183725"/>
+          <a:ext cx="190500" cy="194945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -450,7 +575,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="180">
   <si>
     <t>第一行 为备注
 第二行 为字段导出设置
@@ -530,19 +655,13 @@
     <t>游戏常规-文本的字号</t>
   </si>
   <si>
-    <t>全局配置id</t>
-  </si>
-  <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
-    <t>&lt;INT&gt;</t>
-  </si>
-  <si>
     <t>用于配置全局默认图片的配置表
  数据不想填就写 #BASEVALUE</t>
   </si>
   <si>
+    <t>全局配置id</t>
+  </si>
+  <si>
     <t>全局配置值
 图片</t>
   </si>
@@ -580,27 +699,174 @@
     <t>Map_ItemView_Img_1</t>
   </si>
   <si>
+    <t>窗口衔接上下</t>
+  </si>
+  <si>
+    <t>作战_窗口衔接上下</t>
+  </si>
+  <si>
+    <t>Map_ItemView_Img_2</t>
+  </si>
+  <si>
+    <t>窗口衔接左右</t>
+  </si>
+  <si>
+    <t>作战_窗口衔接左右</t>
+  </si>
+  <si>
+    <t>Map_ItemView_Img_3</t>
+  </si>
+  <si>
     <t>一次性道具列表左上</t>
   </si>
   <si>
-    <t>Map_ItemView_Img_2</t>
+    <t>作战_一次性道具列表左上</t>
+  </si>
+  <si>
+    <t>Map_ItemView_Img_4</t>
   </si>
   <si>
     <t>一次性道具列表右下</t>
   </si>
   <si>
-    <t>Map_ItemView_Img_3</t>
+    <t>作战_一次性道具列表右下</t>
+  </si>
+  <si>
+    <t>Map_ItemView_Img_5</t>
   </si>
   <si>
     <t>一次性道具列表</t>
   </si>
   <si>
+    <t>作战_一次性道具列表</t>
+  </si>
+  <si>
+    <t>Map_BuildListView_1</t>
+  </si>
+  <si>
+    <t>建造列表窗口</t>
+  </si>
+  <si>
+    <t>作战_建造列表窗口</t>
+  </si>
+  <si>
+    <t>Map_BuildListSubView_1</t>
+  </si>
+  <si>
+    <t>建造子列表窗口</t>
+  </si>
+  <si>
+    <t>作战_子列表窗口窗口</t>
+  </si>
+  <si>
+    <t>Map_BuildListSubView_2</t>
+  </si>
+  <si>
+    <t>建造子列表无内容窗口</t>
+  </si>
+  <si>
+    <t>作战_建造子列表无内容窗口</t>
+  </si>
+  <si>
+    <t>Map_BuildList_1</t>
+  </si>
+  <si>
+    <t>建造列表支架右</t>
+  </si>
+  <si>
+    <t>作战_建造列表支架右</t>
+  </si>
+  <si>
+    <t>Map_BuildList_2</t>
+  </si>
+  <si>
+    <t>建造列表支架左</t>
+  </si>
+  <si>
+    <t>作战_建造列表支架左</t>
+  </si>
+  <si>
+    <t>Map_BuildList_3</t>
+  </si>
+  <si>
+    <t>建造子列表支架左</t>
+  </si>
+  <si>
+    <t>作战_建造子列表支架左</t>
+  </si>
+  <si>
+    <t>Map_BuildList_4</t>
+  </si>
+  <si>
+    <t>建造子列表支架右</t>
+  </si>
+  <si>
+    <t>作战_建造子列表支架右</t>
+  </si>
+  <si>
+    <t>Map_PlayerName_1</t>
+  </si>
+  <si>
+    <t>玩家名称窗口</t>
+  </si>
+  <si>
+    <t>作战_玩家名称窗口</t>
+  </si>
+  <si>
+    <t>Map_PlayerDelay_1</t>
+  </si>
+  <si>
+    <t>玩家延迟信号1</t>
+  </si>
+  <si>
+    <t>作战_玩家延迟信号</t>
+  </si>
+  <si>
+    <t>Map_PlayerDelay_2</t>
+  </si>
+  <si>
+    <t>玩家延迟信号2</t>
+  </si>
+  <si>
+    <t>Map_PlayerDelay_3</t>
+  </si>
+  <si>
+    <t>玩家延迟信号3</t>
+  </si>
+  <si>
+    <t>Map_Setting_1</t>
+  </si>
+  <si>
+    <t>设置按钮</t>
+  </si>
+  <si>
+    <t>作战_设置按钮</t>
+  </si>
+  <si>
+    <t>Map_Resources_1</t>
+  </si>
+  <si>
+    <t>资源列表-主要显示窗口</t>
+  </si>
+  <si>
+    <t>作战_资源列表-主要显示窗口</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>&lt;INT&gt;</t>
+  </si>
+  <si>
     <t>数据类型编号</t>
   </si>
   <si>
     <t>数据类型名称</t>
   </si>
   <si>
+    <t>默认值</t>
+  </si>
+  <si>
     <t>数据类型描述</t>
   </si>
   <si>
@@ -610,6 +876,9 @@
     <t>BOOL</t>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>布尔值，用于表示 是或者否，True为是，False为否</t>
   </si>
   <si>
@@ -619,6 +888,9 @@
     <t>SHORT</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
   </si>
   <si>
@@ -655,6 +927,9 @@
     <t>&lt;BOOL&gt;</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>布尔值列表，用于保存一个由布尔值组成的列表</t>
   </si>
   <si>
@@ -703,6 +978,9 @@
     <t>(BOOL)</t>
   </si>
   <si>
+    <t>()</t>
+  </si>
+  <si>
     <t>(SHORT)</t>
   </si>
   <si>
@@ -739,6 +1017,9 @@
     <t>LANG</t>
   </si>
   <si>
+    <t>KeyBase</t>
+  </si>
+  <si>
     <t>语言id 是语言配置的id</t>
   </si>
   <si>
@@ -748,6 +1029,9 @@
     <t>POINT</t>
   </si>
   <si>
+    <t>(0,0)</t>
+  </si>
+  <si>
     <t>保存小数二维坐标的类型</t>
   </si>
   <si>
@@ -772,6 +1056,9 @@
     <t>(1.2,3.5)|(1.4,3.2)</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>Png图片，通常用于导出散图，导出单元格图片后，放在config\images\下</t>
   </si>
   <si>
@@ -796,21 +1083,21 @@
     <t>RGB</t>
   </si>
   <si>
+    <t>(0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgb (x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0)</t>
-  </si>
-  <si>
     <t>RGBA</t>
   </si>
   <si>
+    <t>(0,0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgba (x,x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0,0)</t>
-  </si>
-  <si>
     <t>&lt;Vector2I&gt;</t>
   </si>
   <si>
@@ -830,6 +1117,15 @@
   </si>
   <si>
     <t>BBCode是一种轻量标记语言，具体填写规则https://docs.godotengine.org/en/latest/tutorials/ui/bbcode_in_richtextlabel.html</t>
+  </si>
+  <si>
+    <t>HashSet&lt;INT&gt;</t>
+  </si>
+  <si>
+    <t>确保唯一的Int列表，c#中的HashSet&lt;int&gt;类型</t>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
   </si>
 </sst>
 </file>
@@ -859,13 +1155,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
@@ -885,6 +1174,13 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1342,10 +1638,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1482,32 +1778,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1515,7 +1811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1581,12 +1877,13 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="连接" growShrinkType="overwriteClear" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="5">
-    <queryTableFields count="4">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
+    <queryTableFields count="5">
       <queryTableField id="1" name="数据类型编号"/>
       <queryTableField id="2" name="数据类型名称"/>
-      <queryTableField id="3" name="数据类型描述"/>
-      <queryTableField id="4" name="数据类型示例"/>
+      <queryTableField id="3" name="默认值"/>
+      <queryTableField id="4" name="数据类型描述"/>
+      <queryTableField id="5" name="数据类型示例"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -1858,70 +2155,70 @@
   </cols>
   <sheetData>
     <row r="1" ht="142.5" spans="1:5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2014,93 +2311,472 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="39.875" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="46.375" customWidth="1"/>
-    <col min="5" max="5" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="20.8916666666667" style="9" customWidth="1"/>
+    <col min="2" max="2" width="26.6083333333333" style="9" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="46.375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="27.25" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="142.5" spans="1:5">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="72" customHeight="1" spans="1:5">
+      <c r="A1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E2" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="8">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" ht="43.5" spans="1:5">
+      <c r="A37" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
+      <c r="B37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="9" t="str">
+        <f>_xlfn.DISPIMG("ID_4DF58546C9684EF885F57E66A8C81844",1)</f>
+        <v>=DISPIMG("ID_4DF58546C9684EF885F57E66A8C81844",1)</v>
+      </c>
+    </row>
+    <row r="38" ht="43.5" spans="1:5">
+      <c r="A38" s="9">
+        <v>1</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="9" t="str">
+        <f>_xlfn.DISPIMG("ID_13D1421CF49949B28A045D0662F30214",1)</f>
+        <v>=DISPIMG("ID_13D1421CF49949B28A045D0662F30214",1)</v>
+      </c>
+    </row>
+    <row r="39" ht="43.5" spans="1:5">
+      <c r="A39" s="9">
+        <v>1</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="9" t="str">
+        <f>_xlfn.DISPIMG("ID_45CA2F1B5A01451F870ED313C24CB678",1)</f>
+        <v>=DISPIMG("ID_45CA2F1B5A01451F870ED313C24CB678",1)</v>
+      </c>
+    </row>
+    <row r="41" ht="22" customHeight="1"/>
+    <row r="42" spans="1:5">
+      <c r="A42" s="9">
+        <v>1</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="9" t="str">
+        <f>_xlfn.DISPIMG("ID_E11681D488D244958BDF55FBD406C499",1)</f>
+        <v>=DISPIMG("ID_E11681D488D244958BDF55FBD406C499",1)</v>
+      </c>
+    </row>
+    <row r="43" ht="54.75" spans="1:5">
+      <c r="A43" s="9">
+        <v>1</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="9" t="str">
+        <f>_xlfn.DISPIMG("ID_38BFD745ADBA4760963B0D72345EF281",1)</f>
+        <v>=DISPIMG("ID_38BFD745ADBA4760963B0D72345EF281",1)</v>
+      </c>
+    </row>
+    <row r="44" ht="60.75" spans="1:5">
+      <c r="A44" s="9">
+        <v>1</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="9" t="str">
+        <f>_xlfn.DISPIMG("ID_E615A39914A84A57BF8EA8E908077EAC",1)</f>
+        <v>=DISPIMG("ID_E615A39914A84A57BF8EA8E908077EAC",1)</v>
+      </c>
+    </row>
+    <row r="45" ht="51" customHeight="1" spans="1:5">
+      <c r="A45" s="9">
+        <v>1</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="9" t="str">
+        <f>_xlfn.DISPIMG("ID_CC6A49322DD643D8B44B5B54C6F783E8",1)</f>
+        <v>=DISPIMG("ID_CC6A49322DD643D8B44B5B54C6F783E8",1)</v>
+      </c>
+    </row>
+    <row r="46" ht="63" customHeight="1" spans="1:5">
+      <c r="A46" s="9">
+        <v>1</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="9" t="str">
+        <f>_xlfn.DISPIMG("ID_86BFAD56A97F43D68FD1A4B3C3F9447C",1)</f>
+        <v>=DISPIMG("ID_86BFAD56A97F43D68FD1A4B3C3F9447C",1)</v>
+      </c>
+    </row>
+    <row r="48" ht="56" spans="1:5">
+      <c r="A48" s="9">
+        <v>1</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="9" t="str">
+        <f>_xlfn.DISPIMG("ID_D7C2BA42ED4C4E3ABEF287762A8CD0E4",1)</f>
+        <v>=DISPIMG("ID_D7C2BA42ED4C4E3ABEF287762A8CD0E4",1)</v>
+      </c>
+    </row>
+    <row r="49" ht="77" customHeight="1" spans="1:5">
+      <c r="A49" s="9">
+        <v>1</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="9" t="str">
+        <f>_xlfn.DISPIMG("ID_AD6C04213C134FC1A38B1951EC5C0EF1",1)</f>
+        <v>=DISPIMG("ID_AD6C04213C134FC1A38B1951EC5C0EF1",1)</v>
+      </c>
+    </row>
+    <row r="50" ht="62.8" spans="1:5">
+      <c r="A50" s="9">
+        <v>1</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="9" t="str">
+        <f>_xlfn.DISPIMG("ID_592F75BF494C463291CC98E844FD0829",1)</f>
+        <v>=DISPIMG("ID_592F75BF494C463291CC98E844FD0829",1)</v>
+      </c>
+    </row>
+    <row r="51" ht="77" customHeight="1" spans="1:5">
+      <c r="A51" s="9">
+        <v>1</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="9" t="str">
+        <f>_xlfn.DISPIMG("ID_D86BD9E5CFEF411CB0703A9D3BAA4C9E",1)</f>
+        <v>=DISPIMG("ID_D86BD9E5CFEF411CB0703A9D3BAA4C9E",1)</v>
+      </c>
+    </row>
+    <row r="52" ht="59.05" spans="1:5">
+      <c r="A52" s="9">
+        <v>1</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="9" t="str">
+        <f>_xlfn.DISPIMG("ID_7A16C4365B5D4F22B4CF6879B4E8370F",1)</f>
+        <v>=DISPIMG("ID_7A16C4365B5D4F22B4CF6879B4E8370F",1)</v>
+      </c>
+    </row>
+    <row r="53" ht="80.5" spans="1:5">
+      <c r="A53" s="9">
+        <v>1</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="9" t="str">
+        <f>_xlfn.DISPIMG("ID_FFF7BDEC38BC43F8A720989321AEA61F",1)</f>
+        <v>=DISPIMG("ID_FFF7BDEC38BC43F8A720989321AEA61F",1)</v>
+      </c>
+    </row>
+    <row r="54" ht="107" customHeight="1" spans="1:5">
+      <c r="A54" s="9">
+        <v>1</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" s="9" t="str">
+        <f>_xlfn.DISPIMG("ID_F561EB521CE94EB893B6D11162CE6E76",1)</f>
+        <v>=DISPIMG("ID_F561EB521CE94EB893B6D11162CE6E76",1)</v>
+      </c>
+    </row>
+    <row r="56" ht="23.55" spans="1:5">
+      <c r="A56" s="9">
+        <v>1</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" s="9" t="str">
+        <f>_xlfn.DISPIMG("ID_848BDB4E545D4A0988CB0F859E80787A",1)</f>
+        <v>=DISPIMG("ID_848BDB4E545D4A0988CB0F859E80787A",1)</v>
+      </c>
+    </row>
+    <row r="57" ht="17.6" spans="1:5">
+      <c r="A57" s="9">
+        <v>1</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="9" t="str">
+        <f>_xlfn.DISPIMG("ID_C46F015444CF47A086C961DB06B2A54A",1)</f>
+        <v>=DISPIMG("ID_C46F015444CF47A086C961DB06B2A54A",1)</v>
+      </c>
+    </row>
+    <row r="58" ht="17.6" spans="1:5">
+      <c r="A58" s="9">
+        <v>1</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" s="9" t="str">
+        <f>_xlfn.DISPIMG("ID_F4E2DF4D32804525807430394889206F",1)</f>
+        <v>=DISPIMG("ID_F4E2DF4D32804525807430394889206F",1)</v>
+      </c>
+    </row>
+    <row r="59" ht="34" customHeight="1" spans="1:5">
+      <c r="A59" s="9">
+        <v>1</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="9" t="str">
+        <f>_xlfn.DISPIMG("ID_6170CF5854B9476EACBFBA162F9D861F",1)</f>
+        <v>=DISPIMG("ID_6170CF5854B9476EACBFBA162F9D861F",1)</v>
+      </c>
+    </row>
+    <row r="60" ht="48.55" spans="1:5">
+      <c r="A60" s="9">
+        <v>1</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="9" t="str">
+        <f>_xlfn.DISPIMG("ID_BBEC5DE245F34A54AF2AFE35366EDABA",1)</f>
+        <v>=DISPIMG("ID_BBEC5DE245F34A54AF2AFE35366EDABA",1)</v>
+      </c>
+    </row>
+    <row r="62" ht="16.2" spans="1:5">
+      <c r="A62" s="9">
+        <v>1</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="9" t="str">
+        <f>_xlfn.DISPIMG("ID_3129688A6F744B2ABC15FA1FCF740C56",1)</f>
+        <v>=DISPIMG("ID_3129688A6F744B2ABC15FA1FCF740C56",1)</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E4">
-      <formula1>数据类型!$B$2:$B$51</formula1>
+      <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2127,71 +2803,168 @@
   </cols>
   <sheetData>
     <row r="1" ht="142.5" spans="1:5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E4">
+      <formula1>数据类型!$B$2:$B$51</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="39.875" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="46.375" customWidth="1"/>
+    <col min="5" max="5" width="27.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="142.5" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2205,7 +2978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E8"/>
@@ -2224,335 +2997,78 @@
   </cols>
   <sheetData>
     <row r="1" ht="142.5" spans="1:5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>25</v>
+      <c r="E4" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="10"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="11"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E4">
-      <formula1>数据类型!$B$2:$B$56</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="39.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.6083333333333" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="46.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.25" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="72" customHeight="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" ht="43.5" spans="1:5">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="3" t="str">
-        <f>_xlfn.DISPIMG("ID_4DF58546C9684EF885F57E66A8C81844",1)</f>
-        <v>=DISPIMG("ID_4DF58546C9684EF885F57E66A8C81844",1)</v>
-      </c>
-    </row>
-    <row r="6" ht="43.5" spans="1:5">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="3" t="str">
-        <f>_xlfn.DISPIMG("ID_13D1421CF49949B28A045D0662F30214",1)</f>
-        <v>=DISPIMG("ID_13D1421CF49949B28A045D0662F30214",1)</v>
-      </c>
-    </row>
-    <row r="7" ht="43.5" spans="1:5">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="3" t="str">
-        <f>_xlfn.DISPIMG("ID_45CA2F1B5A01451F870ED313C24CB678",1)</f>
-        <v>=DISPIMG("ID_45CA2F1B5A01451F870ED313C24CB678",1)</v>
-      </c>
-    </row>
-    <row r="9" ht="22" customHeight="1"/>
-    <row r="10" ht="60.75" spans="1:5">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3" t="str">
-        <f>_xlfn.DISPIMG("ID_E615A39914A84A57BF8EA8E908077EAC",1)</f>
-        <v>=DISPIMG("ID_E615A39914A84A57BF8EA8E908077EAC",1)</v>
-      </c>
-    </row>
-    <row r="11" ht="51" customHeight="1" spans="1:5">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3" t="str">
-        <f>_xlfn.DISPIMG("ID_CC6A49322DD643D8B44B5B54C6F783E8",1)</f>
-        <v>=DISPIMG("ID_CC6A49322DD643D8B44B5B54C6F783E8",1)</v>
-      </c>
-    </row>
-    <row r="12" ht="63" customHeight="1" spans="1:5">
-      <c r="A12" s="3">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="3" t="str">
-        <f>_xlfn.DISPIMG("ID_86BFAD56A97F43D68FD1A4B3C3F9447C",1)</f>
-        <v>=DISPIMG("ID_86BFAD56A97F43D68FD1A4B3C3F9447C",1)</v>
-      </c>
-    </row>
-    <row r="14" ht="56" spans="5:5">
-      <c r="E14" s="3" t="str">
-        <f>_xlfn.DISPIMG("ID_D7C2BA42ED4C4E3ABEF287762A8CD0E4",1)</f>
-        <v>=DISPIMG("ID_D7C2BA42ED4C4E3ABEF287762A8CD0E4",1)</v>
-      </c>
-    </row>
-    <row r="15" ht="77" customHeight="1" spans="5:5">
-      <c r="E15" s="3" t="str">
-        <f>_xlfn.DISPIMG("ID_AD6C04213C134FC1A38B1951EC5C0EF1",1)</f>
-        <v>=DISPIMG("ID_AD6C04213C134FC1A38B1951EC5C0EF1",1)</v>
-      </c>
-    </row>
-    <row r="16" ht="62.8" spans="5:5">
-      <c r="E16" s="3" t="str">
-        <f>_xlfn.DISPIMG("ID_592F75BF494C463291CC98E844FD0829",1)</f>
-        <v>=DISPIMG("ID_592F75BF494C463291CC98E844FD0829",1)</v>
-      </c>
-    </row>
-    <row r="17" ht="77" customHeight="1" spans="5:5">
-      <c r="E17" s="3" t="str">
-        <f>_xlfn.DISPIMG("ID_D86BD9E5CFEF411CB0703A9D3BAA4C9E",1)</f>
-        <v>=DISPIMG("ID_D86BD9E5CFEF411CB0703A9D3BAA4C9E",1)</v>
-      </c>
-    </row>
-    <row r="18" ht="59.05" spans="5:5">
-      <c r="E18" s="3" t="str">
-        <f>_xlfn.DISPIMG("ID_7A16C4365B5D4F22B4CF6879B4E8370F",1)</f>
-        <v>=DISPIMG("ID_7A16C4365B5D4F22B4CF6879B4E8370F",1)</v>
-      </c>
-    </row>
-    <row r="19" ht="80.5" spans="5:5">
-      <c r="E19" s="3" t="str">
-        <f>_xlfn.DISPIMG("ID_FFF7BDEC38BC43F8A720989321AEA61F",1)</f>
-        <v>=DISPIMG("ID_FFF7BDEC38BC43F8A720989321AEA61F",1)</v>
-      </c>
-    </row>
-    <row r="20" ht="107" customHeight="1" spans="5:5">
-      <c r="E20" s="3" t="str">
-        <f>_xlfn.DISPIMG("ID_F561EB521CE94EB893B6D11162CE6E76",1)</f>
-        <v>=DISPIMG("ID_F561EB521CE94EB893B6D11162CE6E76",1)</v>
-      </c>
-    </row>
-    <row r="22" ht="23.55" spans="5:5">
-      <c r="E22" s="3" t="str">
-        <f>_xlfn.DISPIMG("ID_848BDB4E545D4A0988CB0F859E80787A",1)</f>
-        <v>=DISPIMG("ID_848BDB4E545D4A0988CB0F859E80787A",1)</v>
-      </c>
-    </row>
-    <row r="23" ht="17.55" spans="5:5">
-      <c r="E23" s="3" t="str">
-        <f>_xlfn.DISPIMG("ID_39BAF081C8AE48E9878228C81A1396CE",1)</f>
-        <v>=DISPIMG("ID_39BAF081C8AE48E9878228C81A1396CE",1)</v>
-      </c>
-    </row>
-    <row r="24" ht="169.8" spans="5:5">
-      <c r="E24" s="3" t="str">
-        <f>_xlfn.DISPIMG("ID_BBEC5DE245F34A54AF2AFE35366EDABA",1)</f>
-        <v>=DISPIMG("ID_BBEC5DE245F34A54AF2AFE35366EDABA",1)</v>
-      </c>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2568,62 +3084,72 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="79.9166666666667" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="79.9166666666667" customWidth="1"/>
+    <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>97</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>101</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2631,391 +3157,504 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>106</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>108</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>110</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>114</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>117</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>119</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>122</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>125</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>113</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>129</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>131</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>132</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>133</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>134</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>135</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>136</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>137</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>138</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>139</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>140</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>141</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>144</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>148</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>151</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>154</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>156</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>159</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>162</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>166</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>169</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>171</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>173</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>122</v>
+        <v>175</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/全局配置相关/默认配置表.xlsx
+++ b/配置文档/全局配置相关/默认配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21840" windowHeight="7665" activeTab="1"/>
+    <workbookView windowWidth="15345" windowHeight="24855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_GlobalConfigInt_全局配置Int数据" sheetId="1" r:id="rId1"/>
@@ -416,38 +416,13 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="ID_3129688A6F744B2ABC15FA1FCF740C56" descr="资源列表-主要显示窗口"/>
+        <xdr:cNvPr id="20" name="ID_E11681D488D244958BDF55FBD406C499" descr="窗口衔接上下"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11352530" y="14878050"/>
-          <a:ext cx="10058400" cy="873125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="ID_E11681D488D244958BDF55FBD406C499" descr="窗口衔接上下"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -472,7 +447,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <a:blip r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -497,7 +472,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <a:blip r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -522,7 +497,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -547,7 +522,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <a:blip r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -556,6 +531,81 @@
         <a:xfrm>
           <a:off x="11375390" y="22183725"/>
           <a:ext cx="190500" cy="194945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="ID_A920E77A61504F50A4810863C50E7AF0" descr="资源列表-主要显示窗口"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9674225" y="21493480"/>
+          <a:ext cx="10088880" cy="1122680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="ID_DB349A9393A94A5586EFFECD2AEAA683" descr="波次进度条"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9819640" y="21875115"/>
+          <a:ext cx="3208020" cy="3230245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="ID_B04578D258074E968A276F50F9B02CE3" descr="一个×"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9561830" y="23976330"/>
+          <a:ext cx="761365" cy="769620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -575,7 +625,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="182">
   <si>
     <t>第一行 为备注
 第二行 为字段导出设置
@@ -768,18 +818,18 @@
     <t>作战_建造子列表无内容窗口</t>
   </si>
   <si>
+    <t>Map_BuildList_2</t>
+  </si>
+  <si>
+    <t>建造列表支架右</t>
+  </si>
+  <si>
+    <t>作战_建造列表支架右</t>
+  </si>
+  <si>
     <t>Map_BuildList_1</t>
   </si>
   <si>
-    <t>建造列表支架右</t>
-  </si>
-  <si>
-    <t>作战_建造列表支架右</t>
-  </si>
-  <si>
-    <t>Map_BuildList_2</t>
-  </si>
-  <si>
     <t>建造列表支架左</t>
   </si>
   <si>
@@ -850,6 +900,12 @@
   </si>
   <si>
     <t>作战_资源列表-主要显示窗口</t>
+  </si>
+  <si>
+    <t>波次进度条</t>
+  </si>
+  <si>
+    <t>叉叉框</t>
   </si>
   <si>
     <t>FLOAT</t>
@@ -1312,7 +1368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1328,6 +1384,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF75BD42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1644,7 +1712,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1668,16 +1736,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1686,89 +1754,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1799,14 +1867,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2147,18 +2227,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="39.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="30.375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="46.375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="27.25" style="12" customWidth="1"/>
+    <col min="1" max="1" width="39.875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="30.375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="46.375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="27.25" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="142.5" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -2222,77 +2302,77 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="1" ht="36" customHeight="1" spans="1:5">
-      <c r="A5" s="12">
+    <row r="5" s="15" customFormat="1" ht="36" customHeight="1" spans="1:5">
+      <c r="A5" s="15">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="12" customFormat="1"/>
-    <row r="7" s="12" customFormat="1" spans="4:4">
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" s="12" customFormat="1"/>
-    <row r="9" s="12" customFormat="1"/>
-    <row r="10" s="12" customFormat="1" spans="1:5">
-      <c r="A10" s="12">
+    <row r="6" s="15" customFormat="1"/>
+    <row r="7" s="15" customFormat="1" spans="4:4">
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" s="15" customFormat="1"/>
+    <row r="9" s="15" customFormat="1"/>
+    <row r="10" s="15" customFormat="1" spans="1:5">
+      <c r="A10" s="15">
         <v>1</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="15">
         <v>36</v>
       </c>
     </row>
-    <row r="11" s="12" customFormat="1" spans="1:5">
-      <c r="A11" s="12">
+    <row r="11" s="15" customFormat="1" spans="1:5">
+      <c r="A11" s="15">
         <v>1</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="15">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="12">
+      <c r="A12" s="15">
         <v>1</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2311,10 +2391,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2323,11 +2403,11 @@
     <col min="2" max="2" width="26.6083333333333" style="9" customWidth="1"/>
     <col min="3" max="3" width="24.875" style="9" customWidth="1"/>
     <col min="4" max="4" width="46.375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="27.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="46.4666666666667" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="72" customHeight="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -2339,7 +2419,7 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2356,7 +2436,7 @@
       <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2373,7 +2453,7 @@
       <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2390,7 +2470,7 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2407,7 +2487,7 @@
       <c r="D37" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="9" t="str">
+      <c r="E37" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_4DF58546C9684EF885F57E66A8C81844",1)</f>
         <v>=DISPIMG("ID_4DF58546C9684EF885F57E66A8C81844",1)</v>
       </c>
@@ -2425,7 +2505,7 @@
       <c r="D38" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="9" t="str">
+      <c r="E38" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_13D1421CF49949B28A045D0662F30214",1)</f>
         <v>=DISPIMG("ID_13D1421CF49949B28A045D0662F30214",1)</v>
       </c>
@@ -2443,7 +2523,7 @@
       <c r="D39" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="9" t="str">
+      <c r="E39" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_45CA2F1B5A01451F870ED313C24CB678",1)</f>
         <v>=DISPIMG("ID_45CA2F1B5A01451F870ED313C24CB678",1)</v>
       </c>
@@ -2462,7 +2542,7 @@
       <c r="D42" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="9" t="str">
+      <c r="E42" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_E11681D488D244958BDF55FBD406C499",1)</f>
         <v>=DISPIMG("ID_E11681D488D244958BDF55FBD406C499",1)</v>
       </c>
@@ -2480,7 +2560,7 @@
       <c r="D43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="9" t="str">
+      <c r="E43" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_38BFD745ADBA4760963B0D72345EF281",1)</f>
         <v>=DISPIMG("ID_38BFD745ADBA4760963B0D72345EF281",1)</v>
       </c>
@@ -2498,7 +2578,7 @@
       <c r="D44" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="9" t="str">
+      <c r="E44" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_E615A39914A84A57BF8EA8E908077EAC",1)</f>
         <v>=DISPIMG("ID_E615A39914A84A57BF8EA8E908077EAC",1)</v>
       </c>
@@ -2516,7 +2596,7 @@
       <c r="D45" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="9" t="str">
+      <c r="E45" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_CC6A49322DD643D8B44B5B54C6F783E8",1)</f>
         <v>=DISPIMG("ID_CC6A49322DD643D8B44B5B54C6F783E8",1)</v>
       </c>
@@ -2534,7 +2614,7 @@
       <c r="D46" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="9" t="str">
+      <c r="E46" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_86BFAD56A97F43D68FD1A4B3C3F9447C",1)</f>
         <v>=DISPIMG("ID_86BFAD56A97F43D68FD1A4B3C3F9447C",1)</v>
       </c>
@@ -2552,7 +2632,7 @@
       <c r="D48" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="9" t="str">
+      <c r="E48" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_D7C2BA42ED4C4E3ABEF287762A8CD0E4",1)</f>
         <v>=DISPIMG("ID_D7C2BA42ED4C4E3ABEF287762A8CD0E4",1)</v>
       </c>
@@ -2570,7 +2650,7 @@
       <c r="D49" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="9" t="str">
+      <c r="E49" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_AD6C04213C134FC1A38B1951EC5C0EF1",1)</f>
         <v>=DISPIMG("ID_AD6C04213C134FC1A38B1951EC5C0EF1",1)</v>
       </c>
@@ -2588,7 +2668,7 @@
       <c r="D50" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E50" s="9" t="str">
+      <c r="E50" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_592F75BF494C463291CC98E844FD0829",1)</f>
         <v>=DISPIMG("ID_592F75BF494C463291CC98E844FD0829",1)</v>
       </c>
@@ -2606,7 +2686,7 @@
       <c r="D51" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E51" s="9" t="str">
+      <c r="E51" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_D86BD9E5CFEF411CB0703A9D3BAA4C9E",1)</f>
         <v>=DISPIMG("ID_D86BD9E5CFEF411CB0703A9D3BAA4C9E",1)</v>
       </c>
@@ -2624,7 +2704,7 @@
       <c r="D52" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="9" t="str">
+      <c r="E52" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_7A16C4365B5D4F22B4CF6879B4E8370F",1)</f>
         <v>=DISPIMG("ID_7A16C4365B5D4F22B4CF6879B4E8370F",1)</v>
       </c>
@@ -2642,7 +2722,7 @@
       <c r="D53" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E53" s="9" t="str">
+      <c r="E53" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_FFF7BDEC38BC43F8A720989321AEA61F",1)</f>
         <v>=DISPIMG("ID_FFF7BDEC38BC43F8A720989321AEA61F",1)</v>
       </c>
@@ -2660,7 +2740,7 @@
       <c r="D54" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="9" t="str">
+      <c r="E54" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_F561EB521CE94EB893B6D11162CE6E76",1)</f>
         <v>=DISPIMG("ID_F561EB521CE94EB893B6D11162CE6E76",1)</v>
       </c>
@@ -2678,7 +2758,7 @@
       <c r="D56" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E56" s="9" t="str">
+      <c r="E56" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_848BDB4E545D4A0988CB0F859E80787A",1)</f>
         <v>=DISPIMG("ID_848BDB4E545D4A0988CB0F859E80787A",1)</v>
       </c>
@@ -2696,7 +2776,7 @@
       <c r="D57" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="9" t="str">
+      <c r="E57" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_C46F015444CF47A086C961DB06B2A54A",1)</f>
         <v>=DISPIMG("ID_C46F015444CF47A086C961DB06B2A54A",1)</v>
       </c>
@@ -2714,7 +2794,7 @@
       <c r="D58" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E58" s="9" t="str">
+      <c r="E58" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_F4E2DF4D32804525807430394889206F",1)</f>
         <v>=DISPIMG("ID_F4E2DF4D32804525807430394889206F",1)</v>
       </c>
@@ -2732,7 +2812,7 @@
       <c r="D59" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="9" t="str">
+      <c r="E59" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_6170CF5854B9476EACBFBA162F9D861F",1)</f>
         <v>=DISPIMG("ID_6170CF5854B9476EACBFBA162F9D861F",1)</v>
       </c>
@@ -2750,12 +2830,12 @@
       <c r="D60" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E60" s="9" t="str">
+      <c r="E60" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_BBEC5DE245F34A54AF2AFE35366EDABA",1)</f>
         <v>=DISPIMG("ID_BBEC5DE245F34A54AF2AFE35366EDABA",1)</v>
       </c>
     </row>
-    <row r="62" ht="16.2" spans="1:5">
+    <row r="62" ht="67" customHeight="1" spans="1:5">
       <c r="A62" s="9">
         <v>1</v>
       </c>
@@ -2768,9 +2848,33 @@
       <c r="D62" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E62" s="9" t="str">
-        <f>_xlfn.DISPIMG("ID_3129688A6F744B2ABC15FA1FCF740C56",1)</f>
-        <v>=DISPIMG("ID_3129688A6F744B2ABC15FA1FCF740C56",1)</v>
+      <c r="E62" s="10" t="str">
+        <f>_xlfn.DISPIMG("ID_A920E77A61504F50A4810863C50E7AF0",1)</f>
+        <v>=DISPIMG("ID_A920E77A61504F50A4810863C50E7AF0",1)</v>
+      </c>
+    </row>
+    <row r="64" ht="164.6" spans="3:5">
+      <c r="C64" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="10" t="str">
+        <f>_xlfn.DISPIMG("ID_DB349A9393A94A5586EFFECD2AEAA683",1)</f>
+        <v>=DISPIMG("ID_DB349A9393A94A5586EFFECD2AEAA683",1)</v>
+      </c>
+    </row>
+    <row r="65" ht="165.2" spans="3:5">
+      <c r="C65" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="10" t="str">
+        <f>_xlfn.DISPIMG("ID_B04578D258074E968A276F50F9B02CE3",1)</f>
+        <v>=DISPIMG("ID_B04578D258074E968A276F50F9B02CE3",1)</v>
       </c>
     </row>
   </sheetData>
@@ -2964,7 +3068,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3061,7 +3165,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="4:4">
@@ -3100,19 +3204,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3120,16 +3224,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3137,16 +3241,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3157,13 +3261,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3171,16 +3275,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3188,16 +3292,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3209,10 +3313,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3220,16 +3324,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3237,16 +3341,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3254,16 +3358,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3271,16 +3375,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3288,16 +3392,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3305,13 +3409,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3319,10 +3423,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3330,10 +3434,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3341,10 +3445,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3352,10 +3456,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3363,10 +3467,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3374,10 +3478,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3385,10 +3489,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3396,10 +3500,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3407,10 +3511,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3418,10 +3522,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3429,10 +3533,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3440,10 +3544,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3451,16 +3555,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3468,16 +3572,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3485,16 +3589,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3502,16 +3606,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3522,10 +3626,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3533,16 +3637,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3550,16 +3654,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3567,16 +3671,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3584,16 +3688,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3601,16 +3705,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3618,14 +3722,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3633,11 +3737,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3645,16 +3749,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/全局配置相关/默认配置表.xlsx
+++ b/配置文档/全局配置相关/默认配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15345" windowHeight="24855" activeTab="1"/>
+    <workbookView windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_GlobalConfigInt_全局配置Int数据" sheetId="1" r:id="rId1"/>
@@ -613,6 +613,156 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="ID_EDD99AE1E03F4BDDADBD56C804EA6E97" descr="万能齿轮资源数字"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11061700" y="3627120"/>
+          <a:ext cx="568960" cy="92710"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="ID_23720DD6DD8649E09DF76A0518AA4163" descr="怨灵水晶资源数字"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11211560" y="3162935"/>
+          <a:ext cx="568325" cy="92710"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="ID_B791A72C9877435B8B9092C2C355186E" descr="次元岛溶剂资源数字"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11069955" y="3414395"/>
+          <a:ext cx="568960" cy="91440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="ID_17A23CF48FB64182B264AA2E9980E7C6" descr="波次数字"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10937875" y="3636645"/>
+          <a:ext cx="568960" cy="92710"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="ID_45435AA83B814BDBAB77E0A67AB8F43C" descr="建造次级列表"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10803890" y="3676650"/>
+          <a:ext cx="283210" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="ID_00F067C5F635495A9199626808FD2758" descr="换列"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10713085" y="4175760"/>
+          <a:ext cx="123190" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
@@ -625,7 +775,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="195">
   <si>
     <t>第一行 为备注
 第二行 为字段导出设置
@@ -717,6 +867,45 @@
   </si>
   <si>
     <t>PNG</t>
+  </si>
+  <si>
+    <t>Resources_Number1</t>
+  </si>
+  <si>
+    <t>万能齿轮资源数字</t>
+  </si>
+  <si>
+    <t>Resources_Number2</t>
+  </si>
+  <si>
+    <t>怨灵水晶资源数字</t>
+  </si>
+  <si>
+    <t>Resources_Number3</t>
+  </si>
+  <si>
+    <t>次元岛溶剂资源数字</t>
+  </si>
+  <si>
+    <t>Resources_Number4</t>
+  </si>
+  <si>
+    <t>波次数字</t>
+  </si>
+  <si>
+    <t>SubBuild_1</t>
+  </si>
+  <si>
+    <t>建造次级列表</t>
+  </si>
+  <si>
+    <t>SubBuild_2</t>
+  </si>
+  <si>
+    <t>建造列表换页</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Map_BuildView_Operate_1</t>
@@ -1368,7 +1557,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1384,12 +1573,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF75BD42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1712,7 +1895,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1736,16 +1919,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1754,85 +1937,85 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1873,7 +2056,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2393,8 +2576,8 @@
   <sheetPr/>
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B51" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2474,18 +2657,128 @@
         <v>26</v>
       </c>
     </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="10" t="str">
+        <f>_xlfn.DISPIMG("ID_EDD99AE1E03F4BDDADBD56C804EA6E97",1)</f>
+        <v>=DISPIMG("ID_EDD99AE1E03F4BDDADBD56C804EA6E97",1)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9">
+        <v>1</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="10" t="str">
+        <f>_xlfn.DISPIMG("ID_23720DD6DD8649E09DF76A0518AA4163",1)</f>
+        <v>=DISPIMG("ID_23720DD6DD8649E09DF76A0518AA4163",1)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9">
+        <v>1</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="10" t="str">
+        <f>_xlfn.DISPIMG("ID_B791A72C9877435B8B9092C2C355186E",1)</f>
+        <v>=DISPIMG("ID_B791A72C9877435B8B9092C2C355186E",1)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="10" t="str">
+        <f>_xlfn.DISPIMG("ID_17A23CF48FB64182B264AA2E9980E7C6",1)</f>
+        <v>=DISPIMG("ID_17A23CF48FB64182B264AA2E9980E7C6",1)</v>
+      </c>
+    </row>
+    <row r="17" ht="25" customHeight="1" spans="1:5">
+      <c r="A17" s="9">
+        <v>1</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="10" t="str">
+        <f>_xlfn.DISPIMG("ID_45435AA83B814BDBAB77E0A67AB8F43C",1)</f>
+        <v>=DISPIMG("ID_45435AA83B814BDBAB77E0A67AB8F43C",1)</v>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="2:5">
+      <c r="B18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="10" t="str">
+        <f>_xlfn.DISPIMG("ID_00F067C5F635495A9199626808FD2758",1)</f>
+        <v>=DISPIMG("ID_00F067C5F635495A9199626808FD2758",1)</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="37" ht="43.5" spans="1:5">
       <c r="A37" s="9">
         <v>1</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E37" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_4DF58546C9684EF885F57E66A8C81844",1)</f>
@@ -2497,13 +2790,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E38" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_13D1421CF49949B28A045D0662F30214",1)</f>
@@ -2515,13 +2808,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E39" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_45CA2F1B5A01451F870ED313C24CB678",1)</f>
@@ -2534,13 +2827,13 @@
         <v>1</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E42" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_E11681D488D244958BDF55FBD406C499",1)</f>
@@ -2552,13 +2845,13 @@
         <v>1</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E43" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_38BFD745ADBA4760963B0D72345EF281",1)</f>
@@ -2570,13 +2863,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E44" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_E615A39914A84A57BF8EA8E908077EAC",1)</f>
@@ -2588,13 +2881,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E45" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_CC6A49322DD643D8B44B5B54C6F783E8",1)</f>
@@ -2606,13 +2899,13 @@
         <v>1</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E46" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_86BFAD56A97F43D68FD1A4B3C3F9447C",1)</f>
@@ -2624,13 +2917,13 @@
         <v>1</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E48" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_D7C2BA42ED4C4E3ABEF287762A8CD0E4",1)</f>
@@ -2642,13 +2935,13 @@
         <v>1</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E49" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_AD6C04213C134FC1A38B1951EC5C0EF1",1)</f>
@@ -2660,13 +2953,13 @@
         <v>1</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E50" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_592F75BF494C463291CC98E844FD0829",1)</f>
@@ -2678,13 +2971,13 @@
         <v>1</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E51" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_D86BD9E5CFEF411CB0703A9D3BAA4C9E",1)</f>
@@ -2696,13 +2989,13 @@
         <v>1</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E52" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_7A16C4365B5D4F22B4CF6879B4E8370F",1)</f>
@@ -2714,13 +3007,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E53" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_FFF7BDEC38BC43F8A720989321AEA61F",1)</f>
@@ -2732,13 +3025,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E54" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_F561EB521CE94EB893B6D11162CE6E76",1)</f>
@@ -2750,13 +3043,13 @@
         <v>1</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E56" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_848BDB4E545D4A0988CB0F859E80787A",1)</f>
@@ -2768,13 +3061,13 @@
         <v>1</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E57" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_C46F015444CF47A086C961DB06B2A54A",1)</f>
@@ -2786,13 +3079,13 @@
         <v>1</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E58" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_F4E2DF4D32804525807430394889206F",1)</f>
@@ -2804,13 +3097,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E59" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_6170CF5854B9476EACBFBA162F9D861F",1)</f>
@@ -2822,13 +3115,13 @@
         <v>1</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E60" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_BBEC5DE245F34A54AF2AFE35366EDABA",1)</f>
@@ -2840,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E62" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_A920E77A61504F50A4810863C50E7AF0",1)</f>
@@ -2855,10 +3148,10 @@
     </row>
     <row r="64" ht="164.6" spans="3:5">
       <c r="C64" s="9" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E64" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_DB349A9393A94A5586EFFECD2AEAA683",1)</f>
@@ -2867,10 +3160,10 @@
     </row>
     <row r="65" ht="165.2" spans="3:5">
       <c r="C65" s="9" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E65" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_B04578D258074E968A276F50F9B02CE3",1)</f>
@@ -3068,7 +3361,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3165,7 +3458,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="4:4">
@@ -3204,19 +3497,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3224,16 +3517,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3241,16 +3534,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3261,13 +3554,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3275,16 +3568,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3292,16 +3585,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3313,10 +3606,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3324,16 +3617,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3341,16 +3634,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3358,16 +3651,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3375,16 +3668,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3392,16 +3685,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3409,13 +3702,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3423,10 +3716,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3434,10 +3727,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3445,10 +3738,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3456,10 +3749,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3467,10 +3760,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3478,10 +3771,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3489,10 +3782,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3500,10 +3793,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3511,10 +3804,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3522,10 +3815,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3533,10 +3826,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3544,10 +3837,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3555,16 +3848,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3572,16 +3865,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3589,16 +3882,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3606,16 +3899,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3626,10 +3919,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3637,16 +3930,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3654,16 +3947,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3671,16 +3964,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3688,16 +3981,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3705,16 +3998,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3722,14 +4015,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3737,11 +4030,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3749,16 +4042,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/全局配置相关/默认配置表.xlsx
+++ b/配置文档/全局配置相关/默认配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_GlobalConfigInt_全局配置Int数据" sheetId="1" r:id="rId1"/>
@@ -775,7 +775,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="220">
   <si>
     <t>第一行 为备注
 第二行 为字段导出设置
@@ -794,6 +794,13 @@
     <t>全局配置名称</t>
   </si>
   <si>
+    <t xml:space="preserve">
+设置-特殊参数中是否显示</t>
+  </si>
+  <si>
+    <t>设置-特殊参数中是否可以修改</t>
+  </si>
+  <si>
     <t>全局配置描述</t>
   </si>
   <si>
@@ -806,12 +813,18 @@
     <t>字段名称</t>
   </si>
   <si>
-    <t>Configid</t>
+    <t>ConfigId</t>
   </si>
   <si>
     <t>ConfigName</t>
   </si>
   <si>
+    <t>&lt;FALSE&gt;#ShopSetting</t>
+  </si>
+  <si>
+    <t>&lt;FALSE&gt;#IsModif</t>
+  </si>
+  <si>
     <t>ConfigDescribe</t>
   </si>
   <si>
@@ -822,6 +835,9 @@
   </si>
   <si>
     <t>STR</t>
+  </si>
+  <si>
+    <t>BOOL</t>
   </si>
   <si>
     <t>INT</t>
@@ -1100,9 +1116,73 @@
     <t>FLOAT</t>
   </si>
   <si>
+    <t>GPU实现-单位分离力计算系统</t>
+  </si>
+  <si>
+    <t>CellSize</t>
+  </si>
+  <si>
+    <t>空间网格大小</t>
+  </si>
+  <si>
+    <t>MaxSeparation</t>
+  </si>
+  <si>
+    <t>最大分离力</t>
+  </si>
+  <si>
+    <t>TotalUnit</t>
+  </si>
+  <si>
+    <t>最大单位数</t>
+  </si>
+  <si>
+    <t>总单位超过这个数会报错</t>
+  </si>
+  <si>
+    <t>MaxBins</t>
+  </si>
+  <si>
+    <t>最大分区数</t>
+  </si>
+  <si>
+    <t>最大分区数，指所有单位最多占据多少个网格位置</t>
+  </si>
+  <si>
     <t>&lt;INT&gt;</t>
   </si>
   <si>
+    <t>大地图的配置</t>
+  </si>
+  <si>
+    <t>BigMap_Show_MoneyIdList</t>
+  </si>
+  <si>
+    <t>大地图显示的货币id顺序</t>
+  </si>
+  <si>
+    <t>作战地图的配置</t>
+  </si>
+  <si>
+    <t>Map_Show_MoneyIdOrder</t>
+  </si>
+  <si>
+    <t>作战地图显示的货币id顺序</t>
+  </si>
+  <si>
+    <t>1|2|3</t>
+  </si>
+  <si>
+    <t>Map_Show_SpecMoneyIdList</t>
+  </si>
+  <si>
+    <t>作战地图使用特殊进度条显示的货币id列表</t>
+  </si>
+  <si>
+    <t>特殊货币，使用特殊进度条显示，
+必须在Map_Show_MoneyIdOrder中才有效果</t>
+  </si>
+  <si>
     <t>数据类型编号</t>
   </si>
   <si>
@@ -1116,9 +1196,6 @@
   </si>
   <si>
     <t>数据类型示例</t>
-  </si>
-  <si>
-    <t>BOOL</t>
   </si>
   <si>
     <t>True</t>
@@ -1414,18 +1491,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1557,7 +1634,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1573,6 +1650,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF75BD42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1889,13 +1972,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1919,16 +2002,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1937,85 +2020,85 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2029,6 +2112,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2041,40 +2127,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2402,167 +2485,200 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="39.875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="30.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="46.375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="27.25" style="15" customWidth="1"/>
+    <col min="1" max="1" width="39.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="46.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="142.5" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="142.5" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="6">
+      <c r="G2" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    <row r="3" ht="14.25" spans="1:7">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" s="15" customFormat="1" ht="36" customHeight="1" spans="1:5">
-      <c r="A5" s="15">
-        <v>1</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="15" t="s">
+    </row>
+    <row r="4" ht="14.25" spans="1:7">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" s="15" customFormat="1"/>
-    <row r="7" s="15" customFormat="1" spans="4:4">
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" s="15" customFormat="1"/>
-    <row r="9" s="15" customFormat="1"/>
-    <row r="10" s="15" customFormat="1" spans="1:5">
-      <c r="A10" s="15">
-        <v>1</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="15">
+    </row>
+    <row r="5" s="3" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1"/>
+    <row r="7" s="3" customFormat="1" spans="4:6">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" s="3" customFormat="1"/>
+    <row r="9" s="3" customFormat="1"/>
+    <row r="10" s="3" customFormat="1" spans="1:7">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="11" s="15" customFormat="1" spans="1:5">
-      <c r="A11" s="15">
-        <v>1</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="15">
+    <row r="11" s="3" customFormat="1" spans="1:7">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="15">
-        <v>1</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="15">
+    <row r="12" spans="1:7">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="3">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E4">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4 F4:G4">
       <formula1>数据类型!$B$2:$B$51</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:E4">
+      <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2576,596 +2692,596 @@
   <sheetPr/>
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.8916666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="26.6083333333333" style="9" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="46.375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="46.4666666666667" style="10" customWidth="1"/>
+    <col min="1" max="1" width="20.8916666666667" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.6083333333333" style="11" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="46.375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="46.4666666666667" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="72" customHeight="1" spans="1:5">
-      <c r="A1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>26</v>
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="9">
-        <v>1</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="10" t="str">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_EDD99AE1E03F4BDDADBD56C804EA6E97",1)</f>
         <v>=DISPIMG("ID_EDD99AE1E03F4BDDADBD56C804EA6E97",1)</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="9">
-        <v>1</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="10" t="str">
+      <c r="A13" s="11">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_23720DD6DD8649E09DF76A0518AA4163",1)</f>
         <v>=DISPIMG("ID_23720DD6DD8649E09DF76A0518AA4163",1)</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="9">
-        <v>1</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="10" t="str">
+      <c r="A14" s="11">
+        <v>1</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_B791A72C9877435B8B9092C2C355186E",1)</f>
         <v>=DISPIMG("ID_B791A72C9877435B8B9092C2C355186E",1)</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="9">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="10" t="str">
+      <c r="A15" s="11">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_17A23CF48FB64182B264AA2E9980E7C6",1)</f>
         <v>=DISPIMG("ID_17A23CF48FB64182B264AA2E9980E7C6",1)</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:5">
-      <c r="A17" s="9">
-        <v>1</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="10" t="str">
+      <c r="A17" s="11">
+        <v>1</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_45435AA83B814BDBAB77E0A67AB8F43C",1)</f>
         <v>=DISPIMG("ID_45435AA83B814BDBAB77E0A67AB8F43C",1)</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="2:5">
-      <c r="B18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="10" t="str">
+      <c r="B18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_00F067C5F635495A9199626808FD2758",1)</f>
         <v>=DISPIMG("ID_00F067C5F635495A9199626808FD2758",1)</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="9" t="s">
-        <v>39</v>
+      <c r="C20" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="37" ht="43.5" spans="1:5">
-      <c r="A37" s="9">
-        <v>1</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="10" t="str">
+      <c r="A37" s="11">
+        <v>1</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_4DF58546C9684EF885F57E66A8C81844",1)</f>
         <v>=DISPIMG("ID_4DF58546C9684EF885F57E66A8C81844",1)</v>
       </c>
     </row>
     <row r="38" ht="43.5" spans="1:5">
-      <c r="A38" s="9">
-        <v>1</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="10" t="str">
+      <c r="A38" s="11">
+        <v>1</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_13D1421CF49949B28A045D0662F30214",1)</f>
         <v>=DISPIMG("ID_13D1421CF49949B28A045D0662F30214",1)</v>
       </c>
     </row>
     <row r="39" ht="43.5" spans="1:5">
-      <c r="A39" s="9">
-        <v>1</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="10" t="str">
+      <c r="A39" s="11">
+        <v>1</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_45CA2F1B5A01451F870ED313C24CB678",1)</f>
         <v>=DISPIMG("ID_45CA2F1B5A01451F870ED313C24CB678",1)</v>
       </c>
     </row>
     <row r="41" ht="22" customHeight="1"/>
     <row r="42" spans="1:5">
-      <c r="A42" s="9">
-        <v>1</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="10" t="str">
+      <c r="A42" s="11">
+        <v>1</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_E11681D488D244958BDF55FBD406C499",1)</f>
         <v>=DISPIMG("ID_E11681D488D244958BDF55FBD406C499",1)</v>
       </c>
     </row>
     <row r="43" ht="54.75" spans="1:5">
-      <c r="A43" s="9">
-        <v>1</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="10" t="str">
+      <c r="A43" s="11">
+        <v>1</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_38BFD745ADBA4760963B0D72345EF281",1)</f>
         <v>=DISPIMG("ID_38BFD745ADBA4760963B0D72345EF281",1)</v>
       </c>
     </row>
     <row r="44" ht="60.75" spans="1:5">
-      <c r="A44" s="9">
-        <v>1</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="10" t="str">
+      <c r="A44" s="11">
+        <v>1</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_E615A39914A84A57BF8EA8E908077EAC",1)</f>
         <v>=DISPIMG("ID_E615A39914A84A57BF8EA8E908077EAC",1)</v>
       </c>
     </row>
     <row r="45" ht="51" customHeight="1" spans="1:5">
-      <c r="A45" s="9">
-        <v>1</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="10" t="str">
+      <c r="A45" s="11">
+        <v>1</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_CC6A49322DD643D8B44B5B54C6F783E8",1)</f>
         <v>=DISPIMG("ID_CC6A49322DD643D8B44B5B54C6F783E8",1)</v>
       </c>
     </row>
     <row r="46" ht="63" customHeight="1" spans="1:5">
-      <c r="A46" s="9">
-        <v>1</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="10" t="str">
+      <c r="A46" s="11">
+        <v>1</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_86BFAD56A97F43D68FD1A4B3C3F9447C",1)</f>
         <v>=DISPIMG("ID_86BFAD56A97F43D68FD1A4B3C3F9447C",1)</v>
       </c>
     </row>
     <row r="48" ht="56" spans="1:5">
-      <c r="A48" s="9">
-        <v>1</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" s="10" t="str">
+      <c r="A48" s="11">
+        <v>1</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_D7C2BA42ED4C4E3ABEF287762A8CD0E4",1)</f>
         <v>=DISPIMG("ID_D7C2BA42ED4C4E3ABEF287762A8CD0E4",1)</v>
       </c>
     </row>
     <row r="49" ht="77" customHeight="1" spans="1:5">
-      <c r="A49" s="9">
-        <v>1</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="10" t="str">
+      <c r="A49" s="11">
+        <v>1</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_AD6C04213C134FC1A38B1951EC5C0EF1",1)</f>
         <v>=DISPIMG("ID_AD6C04213C134FC1A38B1951EC5C0EF1",1)</v>
       </c>
     </row>
     <row r="50" ht="62.8" spans="1:5">
-      <c r="A50" s="9">
-        <v>1</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="10" t="str">
+      <c r="A50" s="11">
+        <v>1</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_592F75BF494C463291CC98E844FD0829",1)</f>
         <v>=DISPIMG("ID_592F75BF494C463291CC98E844FD0829",1)</v>
       </c>
     </row>
     <row r="51" ht="77" customHeight="1" spans="1:5">
-      <c r="A51" s="9">
-        <v>1</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E51" s="10" t="str">
+      <c r="A51" s="11">
+        <v>1</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_D86BD9E5CFEF411CB0703A9D3BAA4C9E",1)</f>
         <v>=DISPIMG("ID_D86BD9E5CFEF411CB0703A9D3BAA4C9E",1)</v>
       </c>
     </row>
     <row r="52" ht="59.05" spans="1:5">
-      <c r="A52" s="9">
-        <v>1</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="10" t="str">
+      <c r="A52" s="11">
+        <v>1</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_7A16C4365B5D4F22B4CF6879B4E8370F",1)</f>
         <v>=DISPIMG("ID_7A16C4365B5D4F22B4CF6879B4E8370F",1)</v>
       </c>
     </row>
     <row r="53" ht="80.5" spans="1:5">
-      <c r="A53" s="9">
-        <v>1</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E53" s="10" t="str">
+      <c r="A53" s="11">
+        <v>1</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_FFF7BDEC38BC43F8A720989321AEA61F",1)</f>
         <v>=DISPIMG("ID_FFF7BDEC38BC43F8A720989321AEA61F",1)</v>
       </c>
     </row>
     <row r="54" ht="107" customHeight="1" spans="1:5">
-      <c r="A54" s="9">
-        <v>1</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E54" s="10" t="str">
+      <c r="A54" s="11">
+        <v>1</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_F561EB521CE94EB893B6D11162CE6E76",1)</f>
         <v>=DISPIMG("ID_F561EB521CE94EB893B6D11162CE6E76",1)</v>
       </c>
     </row>
     <row r="56" ht="23.55" spans="1:5">
-      <c r="A56" s="9">
-        <v>1</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" s="10" t="str">
+      <c r="A56" s="11">
+        <v>1</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_848BDB4E545D4A0988CB0F859E80787A",1)</f>
         <v>=DISPIMG("ID_848BDB4E545D4A0988CB0F859E80787A",1)</v>
       </c>
     </row>
     <row r="57" ht="17.6" spans="1:5">
-      <c r="A57" s="9">
-        <v>1</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E57" s="10" t="str">
+      <c r="A57" s="11">
+        <v>1</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_C46F015444CF47A086C961DB06B2A54A",1)</f>
         <v>=DISPIMG("ID_C46F015444CF47A086C961DB06B2A54A",1)</v>
       </c>
     </row>
     <row r="58" ht="17.6" spans="1:5">
-      <c r="A58" s="9">
-        <v>1</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E58" s="10" t="str">
+      <c r="A58" s="11">
+        <v>1</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_F4E2DF4D32804525807430394889206F",1)</f>
         <v>=DISPIMG("ID_F4E2DF4D32804525807430394889206F",1)</v>
       </c>
     </row>
     <row r="59" ht="34" customHeight="1" spans="1:5">
-      <c r="A59" s="9">
-        <v>1</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E59" s="10" t="str">
+      <c r="A59" s="11">
+        <v>1</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_6170CF5854B9476EACBFBA162F9D861F",1)</f>
         <v>=DISPIMG("ID_6170CF5854B9476EACBFBA162F9D861F",1)</v>
       </c>
     </row>
     <row r="60" ht="48.55" spans="1:5">
-      <c r="A60" s="9">
-        <v>1</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" s="10" t="str">
+      <c r="A60" s="11">
+        <v>1</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_BBEC5DE245F34A54AF2AFE35366EDABA",1)</f>
         <v>=DISPIMG("ID_BBEC5DE245F34A54AF2AFE35366EDABA",1)</v>
       </c>
     </row>
     <row r="62" ht="67" customHeight="1" spans="1:5">
-      <c r="A62" s="9">
-        <v>1</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" s="10" t="str">
+      <c r="A62" s="11">
+        <v>1</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_A920E77A61504F50A4810863C50E7AF0",1)</f>
         <v>=DISPIMG("ID_A920E77A61504F50A4810863C50E7AF0",1)</v>
       </c>
     </row>
     <row r="64" ht="164.6" spans="3:5">
-      <c r="C64" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" s="10" t="str">
+      <c r="C64" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_DB349A9393A94A5586EFFECD2AEAA683",1)</f>
         <v>=DISPIMG("ID_DB349A9393A94A5586EFFECD2AEAA683",1)</v>
       </c>
     </row>
     <row r="65" ht="165.2" spans="3:5">
-      <c r="C65" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E65" s="10" t="str">
+      <c r="C65" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_B04578D258074E968A276F50F9B02CE3",1)</f>
         <v>=DISPIMG("ID_B04578D258074E968A276F50F9B02CE3",1)</v>
       </c>
@@ -3184,93 +3300,122 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="39.875" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="46.375" customWidth="1"/>
-    <col min="5" max="5" width="27.25" customWidth="1"/>
+    <col min="4" max="4" width="29.75" customWidth="1"/>
+    <col min="5" max="5" width="26.75" customWidth="1"/>
+    <col min="6" max="6" width="46.375" customWidth="1"/>
+    <col min="7" max="7" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="142.5" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="142.5" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="6">
+      <c r="G2" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    <row r="3" ht="14.25" spans="1:7">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E4">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4 F4:G4">
       <formula1>数据类型!$B$2:$B$51</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:E4">
+      <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3281,92 +3426,215 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="39.875" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="46.375" customWidth="1"/>
-    <col min="5" max="5" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="39.875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="26.625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="32.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="46.375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="27.25" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="142.5" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="142.5" spans="1:7">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="6">
+      <c r="G2" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>103</v>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="11">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="11">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="11">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="11">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:G4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -3378,94 +3646,147 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="39.875" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="46.375" customWidth="1"/>
-    <col min="5" max="5" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="39.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="46.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="142.5" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:5">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
+    </row>
+    <row r="3" ht="14.25" spans="1:5">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="1:5">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="4:4">
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="4:4">
-      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3497,19 +3818,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3517,16 +3838,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3534,16 +3855,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3551,16 +3872,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3568,16 +3889,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3585,16 +3906,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3602,14 +3923,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3617,16 +3938,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3634,16 +3955,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3651,16 +3972,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3668,16 +3989,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3685,16 +4006,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3702,13 +4023,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3716,10 +4037,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3727,10 +4048,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3738,10 +4059,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3749,10 +4070,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3760,10 +4081,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3771,10 +4092,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3782,10 +4103,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3793,10 +4114,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3804,10 +4125,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3815,10 +4136,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3826,10 +4147,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3837,10 +4158,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3848,16 +4169,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3865,16 +4186,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3882,16 +4203,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3899,16 +4220,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3916,13 +4237,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3930,16 +4251,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3947,16 +4268,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3964,16 +4285,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3981,16 +4302,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3998,16 +4319,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4015,14 +4336,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4030,11 +4351,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4042,16 +4363,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
